--- a/A2/Presentation/Revenue per office and total including discount.xlsx
+++ b/A2/Presentation/Revenue per office and total including discount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93bdcf1d317cb3a6/UON/EBUS3030/EBUS3030/A2/Presentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\UON\EBUS3030\EBUS3030\A2\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{5B97741D-511B-4D94-A063-5F524DA01BBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{EF36581E-387F-4328-8F8D-A2A2ED2119FE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{5B97741D-511B-4D94-A063-5F524DA01BBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E721E2FC-9C30-4FF3-92B2-1A3265E0C4DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{FCFEB15E-D378-4FEB-B05B-E86B8918A32F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{FCFEB15E-D378-4FEB-B05B-E86B8918A32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>store</t>
   </si>
@@ -137,10 +137,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1A296D-B38C-47E6-A984-069DE1132316}">
   <dimension ref="B1:K318"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,18 +1284,18 @@
       <c r="K34" s="2"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
@@ -1377,7 +1377,7 @@
       <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <f>J39</f>
         <v>1762114.1500000001</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <f>C39</f>
         <v>1212834.6000000001</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <f>K39</f>
         <v>1176669.0499999998</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="D54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <f>B39</f>
         <v>1081194.05</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="D55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <f>E39</f>
         <v>981881.05</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <f>F39</f>
         <v>1066418.7000000002</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <f>D39</f>
         <v>981881.05</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <f>G39</f>
         <v>977291.6</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <f>H39</f>
         <v>911330.25</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <f>I39</f>
         <v>870120.20000000019</v>
       </c>
@@ -6752,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5792FD68-7890-4D97-ABD5-EF22DEBD0B5B}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6823,18 +6823,7 @@
       <c r="E5">
         <v>108458.85000000003</v>
       </c>
-      <c r="I5">
-        <v>77</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>43093</v>
-      </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -6849,18 +6838,7 @@
       <c r="E6">
         <v>92738.25</v>
       </c>
-      <c r="I6">
-        <v>95</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5">
-        <v>43097</v>
-      </c>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -6875,18 +6853,7 @@
       <c r="E7">
         <v>94632.850000000035</v>
       </c>
-      <c r="I7">
-        <v>138</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="5">
-        <v>43090</v>
-      </c>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -6901,18 +6868,7 @@
       <c r="E8">
         <v>99324.35</v>
       </c>
-      <c r="I8">
-        <v>139</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="5">
-        <v>43074</v>
-      </c>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -6927,18 +6883,7 @@
       <c r="E9">
         <v>83704.450000000026</v>
       </c>
-      <c r="I9">
-        <v>147</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="5">
-        <v>43086</v>
-      </c>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -6953,18 +6898,7 @@
       <c r="E10">
         <v>69552.049999999974</v>
       </c>
-      <c r="I10">
-        <v>161</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="5">
-        <v>43091</v>
-      </c>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -6979,18 +6913,7 @@
       <c r="E11">
         <v>85986.000000000044</v>
       </c>
-      <c r="I11">
-        <v>167</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5">
-        <v>43085</v>
-      </c>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -7005,340 +6928,76 @@
       <c r="E12">
         <v>71674.500000000015</v>
       </c>
-      <c r="I12">
-        <v>170</v>
-      </c>
-      <c r="J12">
-        <v>9</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="5">
-        <v>43094</v>
-      </c>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I13">
-        <v>177</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="5">
-        <v>43095</v>
-      </c>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I14">
-        <v>179</v>
-      </c>
-      <c r="J14">
-        <v>9</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="5">
-        <v>43083</v>
-      </c>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I15">
-        <v>179</v>
-      </c>
-      <c r="J15">
-        <v>9</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="5">
-        <v>43096</v>
-      </c>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I16">
-        <v>179</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="5">
-        <v>43073</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17">
-        <v>184</v>
-      </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="5">
-        <v>43098</v>
-      </c>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18">
-        <v>195</v>
-      </c>
-      <c r="J18">
-        <v>9</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="5">
-        <v>43072</v>
-      </c>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I19">
-        <v>209</v>
-      </c>
-      <c r="J19">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="5">
-        <v>43078</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20">
-        <v>256</v>
-      </c>
-      <c r="J20">
-        <v>9</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="5">
-        <v>43075</v>
-      </c>
-    </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I21">
-        <v>259</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="5">
-        <v>43089</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I22">
-        <v>260</v>
-      </c>
-      <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="5">
-        <v>43081</v>
-      </c>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I23">
-        <v>295</v>
-      </c>
-      <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="5">
-        <v>43088</v>
-      </c>
-    </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I24">
-        <v>306</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="5">
-        <v>43079</v>
-      </c>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I25">
-        <v>325</v>
-      </c>
-      <c r="J25">
-        <v>9</v>
-      </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="5">
-        <v>43092</v>
-      </c>
-    </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I26">
-        <v>326</v>
-      </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="5">
-        <v>43070</v>
-      </c>
-    </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <v>327</v>
-      </c>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="5">
-        <v>43084</v>
-      </c>
-    </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I28">
-        <v>327</v>
-      </c>
-      <c r="J28">
-        <v>9</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="5">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <v>339</v>
-      </c>
-      <c r="J29">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="5">
-        <v>43087</v>
-      </c>
-    </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I30">
-        <v>367</v>
-      </c>
-      <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" s="5">
-        <v>43076</v>
-      </c>
-    </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I31">
-        <v>385</v>
-      </c>
-      <c r="J31">
-        <v>9</v>
-      </c>
-      <c r="K31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="5">
-        <v>43082</v>
-      </c>
-    </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I32">
-        <v>385</v>
-      </c>
-      <c r="J32">
-        <v>9</v>
-      </c>
-      <c r="K32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="5">
-        <v>43077</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I33">
-        <v>390</v>
-      </c>
-      <c r="J33">
-        <v>9</v>
-      </c>
-      <c r="K33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="5">
-        <v>43080</v>
-      </c>
-    </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I34">
-        <v>413</v>
-      </c>
-      <c r="J34">
-        <v>9</v>
-      </c>
-      <c r="K34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L34" s="5">
-        <v>43071</v>
-      </c>
-    </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I35">
-        <v>571</v>
-      </c>
-      <c r="J35">
-        <v>9</v>
-      </c>
-      <c r="K35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="5">
-        <v>43099</v>
-      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
